--- a/src/test/resources/testData/Testdata.xlsx
+++ b/src/test/resources/testData/Testdata.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Program Name</t>
   </si>
@@ -53,16 +53,34 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Home</t>
+  </si>
+  <si>
     <t>Sdet@gmail.com</t>
   </si>
   <si>
     <t>LmsHackathon@2024</t>
   </si>
   <si>
+    <t>Program</t>
+  </si>
+  <si>
     <t>5hcjask**(nnnn</t>
   </si>
   <si>
     <t>&amp;^bjbjb@BJ</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>LMS - Learning Management System</t>
+  </si>
+  <si>
+    <t>LMS</t>
   </si>
 </sst>
 </file>
@@ -693,8 +711,8 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1110,50 +1128,96 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="18.1259259259259" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="31.1259259259259" customWidth="1"/>
+    <col min="3" max="3" width="34.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>6</v>
       </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
